--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1316147.864804413</v>
+        <v>1313890.84289533</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>107.1389890634202</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>300.8915849827645</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.22084658737597</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>215.6111593088526</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>341.4691678678095</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="V7" t="n">
-        <v>126.0887386816669</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>394.5289683486414</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>163.8950372953905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54110646053142</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>113.5103646250842</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,19 +1582,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.522998336588</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.03704646958048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>103.1340411809968</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>188.3042989869301</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>83.65430578147911</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620241</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>126.0955237083907</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>26.65330880849923</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2533,7 +2533,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>176.3093444548952</v>
+        <v>56.91071586901145</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.380068175847255</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492286</v>
       </c>
       <c r="C31" t="n">
-        <v>155.6490131707921</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3193,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>39.7780857112154</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>133.2205257453324</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>91.48962022749127</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298069</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345258</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706228</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164225</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430364</v>
+        <v>188.7127700430368</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.4926939877641</v>
       </c>
       <c r="U37" t="n">
-        <v>80.74252372098998</v>
+        <v>285.1555829172078</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354225</v>
+        <v>251.0813880354229</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481855</v>
+        <v>285.4667430481859</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006317</v>
+        <v>224.6534001006321</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636893</v>
+        <v>217.5283980636897</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912466</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404365</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,22 +4135,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
         <v>49.37728379124552</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.0661152341316</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>614.0661152341316</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2533.899200474554</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2315.264533446616</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2061.502748084708</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1730.439860741137</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1377.671205471023</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1004.205447209943</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.0661152341316</v>
+        <v>632.3182666762914</v>
       </c>
     </row>
     <row r="3">
@@ -4419,7 +4419,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>63.25696827225937</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340174</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="C5" t="n">
-        <v>439.1214116936057</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>439.1214116936057</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>439.1214116936057</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1536.199889775781</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1146.060557799969</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4729,40 +4729,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1684.117239186542</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1684.117239186542</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1325.851540579792</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>940.0632879815475</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>933.1177872323441</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,31 +4799,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600565</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600565</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,19 +5042,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5066,25 +5066,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5118,10 +5118,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320242</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.8310435707792</v>
+        <v>210.217968413126</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8948606428723</v>
+        <v>210.217968413126</v>
       </c>
       <c r="D13" t="n">
-        <v>241.7782212305366</v>
+        <v>210.217968413126</v>
       </c>
       <c r="E13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1288.206478295169</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>998.7893082582084</v>
+        <v>619.8559841413828</v>
       </c>
       <c r="X13" t="n">
-        <v>770.7997573601911</v>
+        <v>391.8664332433657</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.479508401019</v>
+        <v>391.8664332433657</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1741.136558882383</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>241.7782212305366</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5443,7 +5443,7 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.724257814702</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.039769608815</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W16" t="n">
-        <v>841.6225995718542</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X16" t="n">
-        <v>613.6330486738368</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y16" t="n">
-        <v>423.4266860607763</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5598,7 +5598,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>730.2297869963113</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>561.2936040684043</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>411.1769646560686</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,13 +5674,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1871.844167335533</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1871.844167335533</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1650.077551905059</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1650.077551905059</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1650.077551905059</v>
+        <v>909.273154178341</v>
       </c>
       <c r="W19" t="n">
-        <v>1360.660381868098</v>
+        <v>619.8559841413804</v>
       </c>
       <c r="X19" t="n">
-        <v>1132.670830970081</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>911.878251826551</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,16 +5753,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,16 +5859,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>902.3463618439698</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>733.4101789160629</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>583.2935395037273</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>583.2935395037273</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>436.4035920058169</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>268.7007553805358</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>122.4835685983936</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.556111024461</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.1389409875</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X22" t="n">
-        <v>1123.1389409875</v>
+        <v>391.8664332433627</v>
       </c>
       <c r="Y22" t="n">
-        <v>902.3463618439698</v>
+        <v>391.8664332433627</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,46 +5987,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1465.885462454823</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>1999.417367126748</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6087,19 +6087,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>706.4876447660637</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C25" t="n">
-        <v>706.4876447660637</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D25" t="n">
-        <v>556.3710053537279</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>556.3710053537279</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6145,52 +6145,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.6836668953302</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.6435265574</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1177.553279633264</v>
+        <v>1106.472070799368</v>
       </c>
       <c r="W25" t="n">
-        <v>888.1361095963034</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="X25" t="n">
-        <v>888.1361095963034</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y25" t="n">
-        <v>888.1361095963034</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1676.07730320813</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6324,19 +6324,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.4972173763014</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1949.898952795766</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1949.898952795766</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1728.132337365293</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1439.029470490936</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1184.344982285049</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>894.9278122480885</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>666.9382613500712</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>446.1456822065411</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2628.734306600803</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870722</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3831.983903964021</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4226.758270321199</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4685.236472830187</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
         <v>1138.808109517387</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>810.9179079604252</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,10 +6622,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6637,34 +6637,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1509.973093725643</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>1220.555923688682</v>
+        <v>619.8559841413792</v>
       </c>
       <c r="X31" t="n">
-        <v>992.5663727906649</v>
+        <v>391.8664332433618</v>
       </c>
       <c r="Y31" t="n">
-        <v>992.5663727906649</v>
+        <v>171.0738540998317</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6701,22 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>848.0509105096037</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1299.085123758012</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>1832.617028429937</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>452.5901955154776</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C34" t="n">
-        <v>283.6540125875707</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>283.6540125875707</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>135.7409190051776</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6856,7 +6856,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
         <v>344.6708498442063</v>
@@ -6874,34 +6874,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q34" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570251</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590077</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.5901955154776</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="35">
@@ -6914,40 +6914,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1076.848340014667</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6968,13 +6968,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089897</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7017,10 +7017,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>703.9158534313431</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>703.9158534313431</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>554.8661385527503</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>408.0199695041001</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>262.1969465399326</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308513</v>
+        <v>141.7293596308511</v>
       </c>
       <c r="K37" t="n">
-        <v>346.762235315249</v>
+        <v>346.7622353152485</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992665</v>
+        <v>664.3677264992657</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834337</v>
+        <v>1009.570464834336</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275723</v>
+        <v>1352.024534275721</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931658</v>
+        <v>1652.399825931656</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100838</v>
+        <v>1886.053019100836</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988874</v>
+        <v>1964.709007988872</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988874</v>
+        <v>1875.945475280143</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349444</v>
+        <v>1685.326515640711</v>
       </c>
       <c r="T37" t="n">
-        <v>1774.090048349444</v>
+        <v>1464.62682474398</v>
       </c>
       <c r="U37" t="n">
-        <v>1692.531943580766</v>
+        <v>1176.590882403366</v>
       </c>
       <c r="V37" t="n">
-        <v>1438.914379908623</v>
+        <v>922.9733187312218</v>
       </c>
       <c r="W37" t="n">
-        <v>1150.564134405405</v>
+        <v>634.6230732280036</v>
       </c>
       <c r="X37" t="n">
-        <v>923.6415080411304</v>
+        <v>407.7004468637288</v>
       </c>
       <c r="Y37" t="n">
-        <v>703.9158534313431</v>
+        <v>187.9747922539412</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7178,16 +7178,16 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1650.184003770974</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.715908442899</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N38" t="n">
-        <v>3163.468180669545</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7199,19 +7199,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7269,22 +7269,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932531</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160454</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819769</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477365</v>
       </c>
       <c r="K40" t="n">
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="41">
@@ -7388,13 +7388,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7409,22 +7409,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1650.184003770974</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M41" t="n">
-        <v>2628.734306600803</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N41" t="n">
-        <v>3175.513123659585</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7448,7 +7448,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7479,7 +7479,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215062</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416726</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774102</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430904</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932533</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160447</v>
@@ -7567,13 +7567,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849074</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036727</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,25 +7646,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7716,7 +7716,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
@@ -7825,7 +7825,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
@@ -7837,7 +7837,7 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>123.4719563470478</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>354.4836849406612</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,19 +9401,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9638,19 +9638,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>231.5010718068634</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,22 +9878,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>119.6706498956044</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>401.5033668799356</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>34.13957882094071</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>63.01588120402471</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>7.630896635344868</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10826,19 +10826,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>231.5010718068644</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>135.6385654278963</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>388.4310778980906</v>
       </c>
       <c r="O41" t="n">
-        <v>123.4719563470478</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11297,25 +11297,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>82.70159106555843</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>32.92359802148496</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.5476068825143</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,7 +23668,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>183.3889571555942</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>30.2803543651647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.277846888568217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>105.074288727013</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>53.73645647354655</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>69.69911160133886</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>75.82829886893282</v>
+        <v>195.2269274548165</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.55208449420009</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270144</v>
       </c>
       <c r="C31" t="n">
-        <v>11.5978079278357</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,10 +25081,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>105.6429623117158</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>92.48912964370474</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935318</v>
+        <v>87.28610466604094</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102224</v>
+        <v>166.1905658102228</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.5592177298073</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581641</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345262</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706231</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259153</v>
+        <v>143.6987596259157</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143267</v>
+        <v>95.29616512143301</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164189</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877637</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>204.4130591962175</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.101341240428155e-12</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.912248679001983e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>950497.7775739207</v>
+        <v>950497.7775739206</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>950497.7775739207</v>
+        <v>950497.7775739204</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>950497.7775739204</v>
+        <v>950497.7775739206</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>951207.9091583715</v>
+        <v>951207.9091583713</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719629</v>
@@ -26320,13 +26320,13 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.054920031</v>
       </c>
       <c r="F2" t="n">
         <v>456644.054920031</v>
       </c>
       <c r="G2" t="n">
-        <v>456644.054920031</v>
+        <v>456644.0549200311</v>
       </c>
       <c r="H2" t="n">
         <v>456644.0549200309</v>
@@ -26335,25 +26335,25 @@
         <v>456644.0549200309</v>
       </c>
       <c r="J2" t="n">
+        <v>456644.0549200308</v>
+      </c>
+      <c r="K2" t="n">
+        <v>456644.054920031</v>
+      </c>
+      <c r="L2" t="n">
         <v>456644.0549200309</v>
-      </c>
-      <c r="K2" t="n">
-        <v>456644.0549200309</v>
-      </c>
-      <c r="L2" t="n">
-        <v>456644.054920031</v>
       </c>
       <c r="M2" t="n">
         <v>456991.5661209323</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="O2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="P2" t="n">
         <v>472099.0176719631</v>
-      </c>
-      <c r="P2" t="n">
-        <v>472099.0176719633</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696691</v>
+        <v>130487.319069669</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414986</v>
+        <v>36735.10506415</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="G4" t="n">
-        <v>18148.49231918991</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918995</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918995</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918992</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18148.49231918995</v>
-      </c>
       <c r="M4" t="n">
-        <v>18496.05294811455</v>
+        <v>18496.05294811443</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740894</v>
+        <v>33605.653297409</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26488,19 +26488,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="K5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955461</v>
+        <v>96472.31657955458</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384076.6264631188</v>
+        <v>-384076.6264631189</v>
       </c>
       <c r="C6" t="n">
-        <v>205891.2527514255</v>
+        <v>205891.2527514254</v>
       </c>
       <c r="D6" t="n">
-        <v>205891.2527514255</v>
+        <v>205891.2527514256</v>
       </c>
       <c r="E6" t="n">
-        <v>-385265.3696462793</v>
+        <v>-385332.5651365051</v>
       </c>
       <c r="F6" t="n">
-        <v>342112.0443471274</v>
+        <v>342044.8488569016</v>
       </c>
       <c r="G6" t="n">
-        <v>342112.0443471274</v>
+        <v>342044.8488569017</v>
       </c>
       <c r="H6" t="n">
-        <v>342112.0443471273</v>
+        <v>342044.8488569015</v>
       </c>
       <c r="I6" t="n">
-        <v>342112.0443471274</v>
+        <v>342044.8488569015</v>
       </c>
       <c r="J6" t="n">
-        <v>165688.8251545343</v>
+        <v>165621.6296643084</v>
       </c>
       <c r="K6" t="n">
-        <v>342112.0443471273</v>
+        <v>342044.8488569019</v>
       </c>
       <c r="L6" t="n">
-        <v>342112.0443471274</v>
+        <v>342044.8488569015</v>
       </c>
       <c r="M6" t="n">
-        <v>211535.877523594</v>
+        <v>211470.1929516333</v>
       </c>
       <c r="N6" t="n">
-        <v>301425.5882963023</v>
+        <v>301425.5882963022</v>
       </c>
       <c r="O6" t="n">
-        <v>338160.6933604521</v>
+        <v>338160.6933604518</v>
       </c>
       <c r="P6" t="n">
-        <v>338160.6933604521</v>
+        <v>338160.693360452</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018713</v>
+        <v>45.9188813301875</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,10 +26990,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>67.27672374555131</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>85.34635367328912</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>170.6111335945613</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>191.2648864328589</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>28.26193281065952</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="V7" t="n">
-        <v>126.0489046421611</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>19.25520167215359</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>222.3429013606631</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7057146380964</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>69.82361682150315</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-2.120263810372943e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405439</v>
+        <v>1.056255288405083</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>631.5249572352669</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>810.0737993329934</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>674.9245771183485</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>687.0911861991956</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>575.2607642879366</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>953.8052022928471</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>93.75277736316544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443195</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>400.2071677594251</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37078,16 +37078,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>463.221011027677</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147163</v>
+        <v>46.63467190147134</v>
       </c>
       <c r="K37" t="n">
-        <v>207.103914832725</v>
+        <v>207.1039148327247</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586035</v>
+        <v>320.8136274586033</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818892</v>
+        <v>348.6896346818889</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559455</v>
+        <v>345.9132014559452</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110452</v>
+        <v>303.4093855110449</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335158</v>
+        <v>236.0133264335155</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629907</v>
+        <v>79.45049382629874</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,19 +37546,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>770.4221876370912</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>643.6915663161154</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>940.7329133110019</v>
       </c>
       <c r="O41" t="n">
-        <v>631.5249572352669</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>621.622706895785</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
